--- a/ABUS_US_MG.xlsx
+++ b/ABUS_US_MG.xlsx
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="790">
   <si>
     <t xml:space="preserve">Дата </t>
   </si>
@@ -2155,12 +2155,6 @@
     <t>4.с кальцинатами</t>
   </si>
   <si>
-    <t>5. наличие внутрикистозных</t>
-  </si>
-  <si>
-    <t>пристен.разрастаний</t>
-  </si>
-  <si>
     <t>1.опред. Внутри</t>
   </si>
   <si>
@@ -2482,9 +2476,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Diagnosis</t>
-  </si>
-  <si>
     <t>Side</t>
   </si>
   <si>
@@ -2510,13 +2501,166 @@
   </si>
   <si>
     <t>4.Фиброзно-кистозная болезнь</t>
+  </si>
+  <si>
+    <t>morphology_structure_tumor</t>
+  </si>
+  <si>
+    <t>cytological_conclusion</t>
+  </si>
+  <si>
+    <t>degree_malignancy</t>
+  </si>
+  <si>
+    <t>conclusion_MMG</t>
+  </si>
+  <si>
+    <t>conclusion_MMG_skin</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Calcinates_micro_pure_ultrasound</t>
+  </si>
+  <si>
+    <t>ABUS_calcinates</t>
+  </si>
+  <si>
+    <t>Category_Birads_ABUS</t>
+  </si>
+  <si>
+    <t>Category_Birads_Ultrasound</t>
+  </si>
+  <si>
+    <t>Category_Birads_MMG</t>
+  </si>
+  <si>
+    <t>number_nodles_MRI</t>
+  </si>
+  <si>
+    <t>number_nodles_ABUS</t>
+  </si>
+  <si>
+    <t>number_nodles_US</t>
+  </si>
+  <si>
+    <t>number_nodles_MMG</t>
+  </si>
+  <si>
+    <t>hormonal_medications</t>
+  </si>
+  <si>
+    <t>MRI_data</t>
+  </si>
+  <si>
+    <t>genetics</t>
+  </si>
+  <si>
+    <t>Receptors</t>
+  </si>
+  <si>
+    <t>type_structure_ACR</t>
+  </si>
+  <si>
+    <t>ABUS_diagnosis</t>
+  </si>
+  <si>
+    <t>ABUS_symptom_retraction</t>
+  </si>
+  <si>
+    <t>ABUS_structure</t>
+  </si>
+  <si>
+    <t>ABUS_echogenicity_formation</t>
+  </si>
+  <si>
+    <t>ABUS_nodle_contours</t>
+  </si>
+  <si>
+    <t>ABUS_nodle_size</t>
+  </si>
+  <si>
+    <t>US_diagnosis</t>
+  </si>
+  <si>
+    <t>MMG_areola</t>
+  </si>
+  <si>
+    <t>MMG_nipple</t>
+  </si>
+  <si>
+    <t>MMG_background_breast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMG_nodle </t>
+  </si>
+  <si>
+    <t>MMG_nodle_size</t>
+  </si>
+  <si>
+    <t>MMG_nodle_contour</t>
+  </si>
+  <si>
+    <t>MMG_calcifications</t>
+  </si>
+  <si>
+    <t>MMG_number_formations_visualized</t>
+  </si>
+  <si>
+    <t>MMG_axillary_lymph_nodes</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>US_nodle_contour</t>
+  </si>
+  <si>
+    <t>US_ducts</t>
+  </si>
+  <si>
+    <t>US_background</t>
+  </si>
+  <si>
+    <t>US_formation</t>
+  </si>
+  <si>
+    <t>US_form</t>
+  </si>
+  <si>
+    <t>US_nodle_size</t>
+  </si>
+  <si>
+    <t>US_echogenicity_formation</t>
+  </si>
+  <si>
+    <t>US_structure</t>
+  </si>
+  <si>
+    <t>US_formation_BloodFlow</t>
+  </si>
+  <si>
+    <t>US_elastography</t>
+  </si>
+  <si>
+    <t>US_region_lymph_nodes</t>
+  </si>
+  <si>
+    <t>Diagnosis_primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2581,8 +2725,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2661,6 +2821,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2711,7 +2925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2767,6 +2981,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3098,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="6" t="s">
@@ -31710,13 +31975,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1:BL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="49" max="49" width="13.6640625" customWidth="1"/>
+    <col min="50" max="50" width="14.6640625" customWidth="1"/>
+    <col min="51" max="51" width="13" customWidth="1"/>
+    <col min="52" max="52" width="11.5546875" customWidth="1"/>
+    <col min="53" max="53" width="14.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>60</v>
       </c>
@@ -31724,190 +31996,190 @@
         <v>61</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>728</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>729</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>789</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>730</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="45" t="s">
         <v>731</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="45" t="s">
         <v>732</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="45" t="s">
         <v>733</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="45" t="s">
         <v>734</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="45" t="s">
         <v>735</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="45" t="s">
         <v>736</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="45" t="s">
         <v>737</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="43" t="s">
         <v>739</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="43" t="s">
         <v>740</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="4" t="s">
+      <c r="Q1" s="43" t="s">
+        <v>741</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>768</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>769</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>770</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>771</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>772</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB1" s="37" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD1" s="35" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE1" s="35" t="s">
+        <v>779</v>
+      </c>
+      <c r="AF1" s="35" t="s">
+        <v>780</v>
+      </c>
+      <c r="AG1" s="35" t="s">
+        <v>781</v>
+      </c>
+      <c r="AH1" s="35" t="s">
+        <v>782</v>
+      </c>
+      <c r="AI1" s="35" t="s">
+        <v>783</v>
+      </c>
+      <c r="AJ1" s="35" t="s">
+        <v>784</v>
+      </c>
+      <c r="AK1" s="35" t="s">
+        <v>785</v>
+      </c>
+      <c r="AL1" s="35" t="s">
+        <v>786</v>
+      </c>
+      <c r="AM1" s="35" t="s">
+        <v>787</v>
+      </c>
+      <c r="AN1" s="35" t="s">
+        <v>788</v>
+      </c>
+      <c r="AO1" s="36" t="s">
+        <v>767</v>
+      </c>
+      <c r="AP1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AZ1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="BB1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>55</v>
+      <c r="AQ1" s="34" t="s">
+        <v>766</v>
+      </c>
+      <c r="AR1" s="34" t="s">
+        <v>765</v>
+      </c>
+      <c r="AS1" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="AT1" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="AU1" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="AV1" s="38" t="s">
+        <v>761</v>
+      </c>
+      <c r="AW1" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="AX1" s="49" t="s">
+        <v>759</v>
+      </c>
+      <c r="AY1" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="AZ1" s="48" t="s">
+        <v>757</v>
+      </c>
+      <c r="BA1" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="BB1" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="BC1" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="BD1" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="BE1" s="48" t="s">
+        <v>752</v>
+      </c>
+      <c r="BF1" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="BG1" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="BH1" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="BI1" s="42" t="s">
+        <v>748</v>
       </c>
       <c r="BJ1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL1" s="7" t="s">
-        <v>58</v>
+        <v>747</v>
+      </c>
+      <c r="BK1" s="46" t="s">
+        <v>745</v>
+      </c>
+      <c r="BL1" s="46" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.3">
@@ -59458,8 +59730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2:BH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59544,7 +59816,7 @@
         <v>26</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>28</v>
@@ -59583,7 +59855,7 @@
         <v>39</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AO1" s="4" t="s">
         <v>33</v>
@@ -59657,10 +59929,10 @@
         <v>462</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>473</v>
@@ -59678,7 +59950,7 @@
         <v>485</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>485</v>
@@ -59760,10 +60032,10 @@
         <v>506</v>
       </c>
       <c r="AK2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AL2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AM2" t="s">
         <v>473</v>
@@ -59779,49 +60051,49 @@
         <v>548</v>
       </c>
       <c r="AR2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AS2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AT2" t="s">
         <v>473</v>
       </c>
       <c r="AU2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AV2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AW2" t="s">
         <v>485</v>
       </c>
       <c r="AX2" s="26" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AY2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AZ2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="BA2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="BB2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="BC2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="BE2" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="BG2" t="s">
         <v>506</v>
@@ -59830,10 +60102,10 @@
         <v>506</v>
       </c>
       <c r="BI2" s="27" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="BJ2" s="27" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.3">
@@ -59858,13 +60130,13 @@
         <v>492</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>492</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="L3" s="22" t="s">
         <v>495</v>
@@ -59918,13 +60190,13 @@
         <v>585</v>
       </c>
       <c r="AC3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AD3" t="s">
         <v>593</v>
       </c>
       <c r="AE3" s="29" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AF3" t="s">
         <v>605</v>
@@ -59939,16 +60211,16 @@
         <v>618</v>
       </c>
       <c r="AJ3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AK3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AL3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AM3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AN3" t="s">
         <v>522</v>
@@ -59966,49 +60238,49 @@
         <v>618</v>
       </c>
       <c r="AS3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AT3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AU3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AV3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AW3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AY3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AZ3" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="BA3" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="BB3" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="BC3" s="11" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="BD3" s="29" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="BE3" s="29" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="BF3" s="29" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="BG3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="BH3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
@@ -60035,7 +60307,7 @@
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="23" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>496</v>
@@ -60107,16 +60379,16 @@
         <v>619</v>
       </c>
       <c r="AJ4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AK4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AL4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AM4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AN4" t="s">
         <v>583</v>
@@ -60134,40 +60406,40 @@
         <v>619</v>
       </c>
       <c r="AT4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AU4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AV4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AZ4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="BA4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="BB4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="BC4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="BD4" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="BE4" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="BF4" s="29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="BG4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="BH4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.3">
@@ -60190,10 +60462,10 @@
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="L5" s="22" t="s">
         <v>497</v>
@@ -60256,19 +60528,19 @@
         <v>615</v>
       </c>
       <c r="AI5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AJ5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AK5" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AL5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AM5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AN5" t="s">
         <v>584</v>
@@ -60286,40 +60558,40 @@
         <v>620</v>
       </c>
       <c r="AT5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AU5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AV5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AZ5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="BA5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="BB5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="BC5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="BD5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="BE5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="BF5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="BG5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="BH5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.3">
@@ -60327,7 +60599,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
@@ -60338,7 +60610,7 @@
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -60403,22 +60675,22 @@
         <v>622</v>
       </c>
       <c r="AJ6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AK6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AL6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AM6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AO6" t="s">
         <v>611</v>
       </c>
       <c r="AP6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AQ6" t="s">
         <v>616</v>
@@ -60427,31 +60699,31 @@
         <v>621</v>
       </c>
       <c r="AT6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AV6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AZ6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="BA6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="BB6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="BC6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="BD6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="BE6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="BF6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.3">
@@ -60470,7 +60742,7 @@
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -60500,7 +60772,7 @@
         <v>578</v>
       </c>
       <c r="AB7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AD7" t="s">
         <v>597</v>
@@ -60518,25 +60790,25 @@
         <v>617</v>
       </c>
       <c r="AI7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AJ7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AK7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AL7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AM7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AO7" t="s">
         <v>612</v>
       </c>
       <c r="AP7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AQ7" t="s">
         <v>617</v>
@@ -60545,28 +60817,28 @@
         <v>622</v>
       </c>
       <c r="AT7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AV7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AZ7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="BA7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="BB7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="BD7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="BE7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="BF7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.3">
@@ -60619,34 +60891,34 @@
         <v>589</v>
       </c>
       <c r="AJ8" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AL8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AM8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AP8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AR8" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
       <c r="AT8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AV8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="BD8" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="BE8" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="BF8" s="11" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.3">
@@ -60654,7 +60926,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -60680,25 +60952,22 @@
         <v>604</v>
       </c>
       <c r="AM9" t="s">
-        <v>648</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="AT9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AV9" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="BD9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="BE9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="BF9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.3">
@@ -60719,22 +60988,22 @@
         <v>502</v>
       </c>
       <c r="AM10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AT10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AV10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="BD10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="BE10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="BF10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.3">
@@ -60755,10 +61024,10 @@
         <v>503</v>
       </c>
       <c r="AM11" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="AT11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.3">
@@ -60779,10 +61048,10 @@
         <v>504</v>
       </c>
       <c r="AM12" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="AT12" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.3">
@@ -60800,10 +61069,10 @@
         <v>505</v>
       </c>
       <c r="AM13" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AT13" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60821,10 +61090,10 @@
       <c r="M14" s="24"/>
       <c r="AK14" s="25"/>
       <c r="AM14" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AT14" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -60840,7 +61109,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60852,10 +61121,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60863,10 +61132,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C2" t="s">
         <v>700</v>
-      </c>
-      <c r="C2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60874,10 +61143,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60885,10 +61154,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60896,10 +61165,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60907,10 +61176,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60918,7 +61187,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60926,21 +61195,21 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B9" t="s">
+        <v>698</v>
+      </c>
+      <c r="C9" t="s">
         <v>700</v>
-      </c>
-      <c r="C9" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60948,10 +61217,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>698</v>
+      </c>
+      <c r="C10" t="s">
         <v>700</v>
-      </c>
-      <c r="C10" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60959,10 +61228,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" t="s">
         <v>700</v>
-      </c>
-      <c r="C11" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60970,10 +61239,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C12" t="s">
         <v>700</v>
-      </c>
-      <c r="C12" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -60981,10 +61250,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -60992,10 +61261,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C14" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -61003,10 +61272,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C15" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61014,10 +61283,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>698</v>
+      </c>
+      <c r="C16" t="s">
         <v>700</v>
-      </c>
-      <c r="C16" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61025,10 +61294,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C17" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61036,10 +61305,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>698</v>
+      </c>
+      <c r="C18" t="s">
         <v>700</v>
-      </c>
-      <c r="C18" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61047,10 +61316,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>698</v>
+      </c>
+      <c r="C19" t="s">
         <v>700</v>
-      </c>
-      <c r="C19" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61058,10 +61327,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C20" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61069,10 +61338,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61080,10 +61349,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C22" t="s">
         <v>700</v>
-      </c>
-      <c r="C22" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61091,10 +61360,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C23" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61102,10 +61371,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C24" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -61113,10 +61382,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C25" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61124,10 +61393,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C26" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61135,10 +61404,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C27" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61146,10 +61415,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C28" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61157,10 +61426,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C29" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61168,10 +61437,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>698</v>
+      </c>
+      <c r="C30" t="s">
         <v>700</v>
-      </c>
-      <c r="C30" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61179,10 +61448,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C31" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61190,10 +61459,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C32" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61201,10 +61470,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C33" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61212,10 +61481,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C34" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -61223,10 +61492,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C35" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61234,10 +61503,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C36" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -61245,10 +61514,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C37" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61256,10 +61525,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C38" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61267,10 +61536,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C39" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61278,10 +61547,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C40" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61289,10 +61558,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C41" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61300,10 +61569,10 @@
         <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C42" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61311,10 +61580,10 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C43" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -61322,10 +61591,10 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C44" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61333,10 +61602,10 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61344,10 +61613,10 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
+        <v>698</v>
+      </c>
+      <c r="C46" t="s">
         <v>700</v>
-      </c>
-      <c r="C46" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61355,10 +61624,10 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C47" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61366,10 +61635,10 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
+        <v>698</v>
+      </c>
+      <c r="C48" t="s">
         <v>700</v>
-      </c>
-      <c r="C48" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61377,10 +61646,10 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
+        <v>698</v>
+      </c>
+      <c r="C49" t="s">
         <v>700</v>
-      </c>
-      <c r="C49" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61388,10 +61657,10 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
+        <v>698</v>
+      </c>
+      <c r="C50" t="s">
         <v>700</v>
-      </c>
-      <c r="C50" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61399,7 +61668,7 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -61407,10 +61676,10 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
+        <v>698</v>
+      </c>
+      <c r="C52" t="s">
         <v>700</v>
-      </c>
-      <c r="C52" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61418,10 +61687,10 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
+        <v>698</v>
+      </c>
+      <c r="C53" t="s">
         <v>700</v>
-      </c>
-      <c r="C53" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61429,10 +61698,10 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
+        <v>698</v>
+      </c>
+      <c r="C54" t="s">
         <v>700</v>
-      </c>
-      <c r="C54" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61440,10 +61709,10 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
+        <v>698</v>
+      </c>
+      <c r="C55" t="s">
         <v>700</v>
-      </c>
-      <c r="C55" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61451,10 +61720,10 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
+        <v>698</v>
+      </c>
+      <c r="C56" t="s">
         <v>700</v>
-      </c>
-      <c r="C56" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61462,10 +61731,10 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
+        <v>698</v>
+      </c>
+      <c r="C57" t="s">
         <v>700</v>
-      </c>
-      <c r="C57" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61473,10 +61742,10 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
+        <v>698</v>
+      </c>
+      <c r="C58" t="s">
         <v>700</v>
-      </c>
-      <c r="C58" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61484,10 +61753,10 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
+        <v>698</v>
+      </c>
+      <c r="C59" t="s">
         <v>700</v>
-      </c>
-      <c r="C59" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61495,10 +61764,10 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
+        <v>698</v>
+      </c>
+      <c r="C60" t="s">
         <v>700</v>
-      </c>
-      <c r="C60" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -61506,10 +61775,10 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
+        <v>698</v>
+      </c>
+      <c r="C61" t="s">
         <v>700</v>
-      </c>
-      <c r="C61" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61517,10 +61786,10 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C62" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -61528,10 +61797,10 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C63" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
